--- a/results/input_sweep_r17/h2000_M0.25_R1250km_PL350kg/ReqPowDATA.xlsx
+++ b/results/input_sweep_r17/h2000_M0.25_R1250km_PL350kg/ReqPowDATA.xlsx
@@ -486,10 +486,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>53.07440976941663</v>
+        <v>52.81224969662363</v>
       </c>
       <c r="F2" t="n">
-        <v>53.07440976941663</v>
+        <v>52.81224969662363</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -511,10 +511,10 @@
         <v>5</v>
       </c>
       <c r="E3" t="n">
-        <v>106.1488195388333</v>
+        <v>105.6244993932473</v>
       </c>
       <c r="F3" t="n">
-        <v>106.1488195388333</v>
+        <v>105.6244993932473</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -536,13 +536,13 @@
         <v>1</v>
       </c>
       <c r="E4" t="n">
-        <v>1028.692130702337</v>
+        <v>1023.610920893028</v>
       </c>
       <c r="F4" t="n">
-        <v>773.2022892634752</v>
+        <v>769.3830952382754</v>
       </c>
       <c r="G4" t="n">
-        <v>255.4898414388621</v>
+        <v>254.2278256547526</v>
       </c>
     </row>
     <row r="5">
@@ -561,13 +561,13 @@
         <v>5.047445992327883</v>
       </c>
       <c r="E5" t="n">
-        <v>1061.488195388333</v>
+        <v>1056.244993932472</v>
       </c>
       <c r="F5" t="n">
-        <v>797.883562590983</v>
+        <v>793.9424606842914</v>
       </c>
       <c r="G5" t="n">
-        <v>263.6046327973494</v>
+        <v>262.3025332481811</v>
       </c>
     </row>
     <row r="6">
@@ -586,10 +586,10 @@
         <v>232.5448697555975</v>
       </c>
       <c r="E6" t="n">
-        <v>421.6777964070932</v>
+        <v>419.5954964279161</v>
       </c>
       <c r="F6" t="n">
-        <v>421.6777964070932</v>
+        <v>419.5954964279161</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -611,10 +611,10 @@
         <v>15</v>
       </c>
       <c r="E7" t="n">
-        <v>421.6714915498745</v>
+        <v>335.6713777190062</v>
       </c>
       <c r="F7" t="n">
-        <v>421.6714915498745</v>
+        <v>335.6713777190062</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
